--- a/M6/TaiLieu/[Axx2xIx]_Daily Report_AccountNam.xlsx
+++ b/M6/TaiLieu/[Axx2xIx]_Daily Report_AccountNam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codeGym\A09\A0922I1_dinhvietnhattan\M6\TaiLieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codegym\A0922I1_dinhvietnhattan\M6\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376BE6FB-2247-459E-B072-04F95C58B29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="14-12-2020" sheetId="3" state="hidden" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="123">
   <si>
     <t>Daily task report</t>
   </si>
@@ -679,25 +680,19 @@
     <t>3. Next day tasks</t>
   </si>
   <si>
-    <t>[Coding spring]6.9.1.Đăng ký nhóm sinh viên</t>
-  </si>
-  <si>
-    <t>[Coding spring]6.9.2.Đăng ký đề tài</t>
-  </si>
-  <si>
-    <t>[A1122I1]_Daily Report_TanDVN_22/11/2023</t>
-  </si>
-  <si>
     <t>[Coding Angular + all]6.9.1.Đăng ký nhóm sinh viên</t>
   </si>
   <si>
     <t>[Coding Angular + all]6.9.2.Đăng ký đề tài</t>
+  </si>
+  <si>
+    <t>[A1122I1]_Daily Report_TanDVN_27/11/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -894,7 +889,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -994,12 +989,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,9 +1027,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Percent 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1323,20 +1312,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="35.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1359,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31">
+    <row r="6" spans="1:7" ht="31.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1405,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31">
+    <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -1428,7 +1417,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
     </row>
@@ -1437,7 +1426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
@@ -1458,7 +1447,7 @@
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="31">
+    <row r="11" spans="1:7" ht="31.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -1479,7 +1468,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="31">
+    <row r="12" spans="1:7" ht="31.2">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -1500,18 +1489,18 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="23" t="s">
         <v>4</v>
       </c>
@@ -1521,16 +1510,16 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="15.5">
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="15.6">
       <c r="A16" s="30">
         <v>1</v>
       </c>
@@ -1540,14 +1529,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -1565,20 +1554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="62.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1601,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -1716,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
     </row>
@@ -1725,7 +1714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
@@ -1784,18 +1773,18 @@
       <c r="F14" s="5"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="23" t="s">
         <v>4</v>
       </c>
@@ -1805,14 +1794,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -1824,14 +1813,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -1853,20 +1842,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="62.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1889,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1947,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
     </row>
@@ -1967,7 +1956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
@@ -2064,18 +2053,18 @@
       <c r="F14" s="5"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="23" t="s">
         <v>4</v>
       </c>
@@ -2085,14 +2074,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -2104,14 +2093,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -2130,20 +2119,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="62.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2166,7 +2155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
     </row>
@@ -2290,7 +2279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
@@ -2349,18 +2338,18 @@
       <c r="F14" s="5"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="23" t="s">
         <v>4</v>
       </c>
@@ -2370,14 +2359,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -2389,14 +2378,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -2415,20 +2404,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="62.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2451,7 +2440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -2520,7 +2509,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
     </row>
@@ -2529,7 +2518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
@@ -2588,18 +2577,18 @@
       <c r="F12" s="5"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="23" t="s">
         <v>4</v>
       </c>
@@ -2609,14 +2598,14 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="30">
@@ -2628,14 +2617,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -2654,20 +2643,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="62.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2690,7 +2679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2748,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
     </row>
@@ -2768,7 +2757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
@@ -2827,18 +2816,18 @@
       <c r="F12" s="5"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="23" t="s">
         <v>4</v>
       </c>
@@ -2848,14 +2837,14 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="30">
@@ -2867,14 +2856,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -2893,39 +2882,39 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="46.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.75" customHeight="1"/>
-    <row r="2" spans="1:9" ht="17.5">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="1:9" ht="14.7" customHeight="1"/>
+    <row r="2" spans="1:9" ht="17.399999999999999">
+      <c r="B2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.5">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
       <c r="D4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2933,7 +2922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
@@ -2941,7 +2930,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="D6" s="1" t="s">
         <v>114</v>
       </c>
@@ -2954,7 +2943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.5">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -2964,14 +2953,14 @@
       <c r="C9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="48" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2979,59 +2968,59 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.25" customHeight="1">
+    <row r="10" spans="1:9" ht="16.2" customHeight="1">
       <c r="A10" s="5">
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15.5">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="5">
         <v>2</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15.5">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="5">
         <v>3</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15.5">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="5">
         <v>4</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15.5">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -3044,7 +3033,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.5">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
@@ -3064,15 +3053,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
-      <c r="A17" s="37">
-        <v>1</v>
-      </c>
-      <c r="B17" s="41" t="s">
+    <row r="17" spans="1:7" ht="15.6">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="42">
-        <v>45252</v>
+      <c r="C17" s="40">
+        <v>45259</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
@@ -3080,15 +3069,15 @@
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.5">
-      <c r="A18" s="39">
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" s="37">
         <v>2</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="42">
-        <v>45252</v>
+      <c r="C18" s="40">
+        <v>45259</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
@@ -3096,7 +3085,7 @@
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -3106,7 +3095,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -3116,7 +3105,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.5">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -3126,7 +3115,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.5">
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3136,7 +3125,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="15.5">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -3150,7 +3139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.5">
+    <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
@@ -3164,40 +3153,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.5">
-      <c r="A26" s="40">
-        <v>1</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="42">
+    <row r="26" spans="1:7" ht="15.6">
+      <c r="A26" s="38">
+        <v>1</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="40">
         <v>45259</v>
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5">
-      <c r="A27" s="40">
+    <row r="27" spans="1:7" ht="15.6">
+      <c r="A27" s="38">
         <v>2</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="42">
+      <c r="B27" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="40">
         <v>45259</v>
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5">
-      <c r="A28" s="38">
+    <row r="28" spans="1:7" ht="15.6">
+      <c r="A28" s="5">
         <v>3</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5">
-      <c r="A29" s="38">
+    <row r="29" spans="1:7" ht="15.6">
+      <c r="A29" s="5">
         <v>4</v>
       </c>
       <c r="B29" s="16"/>
@@ -3219,7 +3208,7 @@
     <mergeCell ref="F10:G10"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Not yet started, In progress, Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3229,20 +3218,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="35.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3265,7 +3254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -3288,7 +3277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31">
+    <row r="6" spans="1:7" ht="31.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -3311,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31">
+    <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -3334,7 +3323,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
     </row>
@@ -3343,7 +3332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
@@ -3364,7 +3353,7 @@
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="31">
+    <row r="11" spans="1:7" ht="31.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -3385,7 +3374,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -3406,7 +3395,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -3427,18 +3416,18 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="23" t="s">
         <v>4</v>
       </c>
@@ -3448,16 +3437,16 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="15.5">
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="15.6">
       <c r="A17" s="30">
         <v>1</v>
       </c>
@@ -3467,14 +3456,14 @@
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>
@@ -3492,20 +3481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="35.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3528,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
     </row>
@@ -3675,7 +3664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="23" t="s">
         <v>4</v>
       </c>
@@ -3791,18 +3780,18 @@
       <c r="F18" s="5"/>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="21">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.5">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="23" t="s">
         <v>4</v>
       </c>
@@ -3812,14 +3801,14 @@
       <c r="C21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44" t="s">
+      <c r="E21" s="42"/>
+      <c r="F21" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
       <c r="A22" s="30">
@@ -3831,14 +3820,14 @@
       <c r="C22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="27" spans="1:7">
       <c r="C27" s="33"/>
@@ -3857,20 +3846,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3893,7 +3882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -4031,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
     </row>
@@ -4040,7 +4029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="23" t="s">
         <v>4</v>
       </c>
@@ -4099,18 +4088,18 @@
       <c r="F15" s="5"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="15.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.5">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="23" t="s">
         <v>4</v>
       </c>
@@ -4120,14 +4109,14 @@
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A19" s="30">
@@ -4139,14 +4128,14 @@
       <c r="C19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="33"/>
@@ -4165,20 +4154,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4201,7 +4190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -4316,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
     </row>
@@ -4325,7 +4314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
@@ -4403,18 +4392,18 @@
       <c r="F15" s="5"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="15.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.5">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="23" t="s">
         <v>4</v>
       </c>
@@ -4424,14 +4413,14 @@
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A19" s="30">
@@ -4443,14 +4432,14 @@
       <c r="C19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="33"/>
@@ -4469,20 +4458,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4505,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -4574,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
     </row>
@@ -4583,7 +4572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
@@ -4625,18 +4614,18 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7" ht="21">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="23" t="s">
         <v>4</v>
       </c>
@@ -4646,23 +4635,23 @@
       <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="33"/>
@@ -4681,20 +4670,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4717,7 +4706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -4832,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
     </row>
@@ -4841,7 +4830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
@@ -4904,18 +4893,18 @@
       </c>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="23" t="s">
         <v>4</v>
       </c>
@@ -4925,23 +4914,23 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -4960,20 +4949,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4996,7 +4985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -5065,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
     </row>
@@ -5074,7 +5063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
@@ -5158,18 +5147,18 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="23" t="s">
         <v>4</v>
       </c>
@@ -5179,23 +5168,23 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>
@@ -5214,20 +5203,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5250,7 +5239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -5342,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
     </row>
@@ -5351,7 +5340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
@@ -5414,18 +5403,18 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="23" t="s">
         <v>4</v>
       </c>
@@ -5435,14 +5424,14 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A17" s="30">
@@ -5454,14 +5443,14 @@
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>

--- a/M6/TaiLieu/[Axx2xIx]_Daily Report_AccountNam.xlsx
+++ b/M6/TaiLieu/[Axx2xIx]_Daily Report_AccountNam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codegym\A0922I1_dinhvietnhattan\M6\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376BE6FB-2247-459E-B072-04F95C58B29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B492CEE-4328-4844-B69F-7E1CD70980F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,25 @@
     <sheet name="05-1-2020" sheetId="14" state="hidden" r:id="rId14"/>
     <sheet name="dd-mm-yyyy" sheetId="24" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="125">
   <si>
     <t>Daily task report</t>
   </si>
@@ -680,13 +693,19 @@
     <t>3. Next day tasks</t>
   </si>
   <si>
-    <t>[Coding Angular + all]6.9.1.Đăng ký nhóm sinh viên</t>
-  </si>
-  <si>
-    <t>[Coding Angular + all]6.9.2.Đăng ký đề tài</t>
-  </si>
-  <si>
-    <t>[A1122I1]_Daily Report_TanDVN_27/11/2023</t>
+    <t>[Review code (Sonarqube)]6.9.1.Đăng ký nhóm sinh viên</t>
+  </si>
+  <si>
+    <t>[Review code (Sonarqube)]6.9.2.Đăng ký đề tài</t>
+  </si>
+  <si>
+    <t>[A1122I1]_Daily Report_TanDVN_06/12/2023</t>
+  </si>
+  <si>
+    <t>[fix Bug]6.9.1.Đăng ký nhóm sinh viên</t>
+  </si>
+  <si>
+    <t>[fix Bug]6.9.2.Đăng ký đề tài</t>
   </si>
 </sst>
 </file>
@@ -781,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,8 +825,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -882,6 +907,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -889,7 +929,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -996,7 +1036,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,6 +1066,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,7 +1076,7 @@
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1039,6 +1084,158 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2885,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3061,7 +3258,7 @@
         <v>120</v>
       </c>
       <c r="C17" s="40">
-        <v>45259</v>
+        <v>45261</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
@@ -3077,7 +3274,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="40">
-        <v>45259</v>
+        <v>45261</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
@@ -3158,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="40">
-        <v>45259</v>
+        <v>123</v>
+      </c>
+      <c r="C26" s="50">
+        <v>45266</v>
       </c>
       <c r="D26" s="7"/>
     </row>
@@ -3170,10 +3367,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C27" s="40">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="D27" s="7"/>
     </row>
@@ -3207,6 +3404,86 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
   </mergeCells>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="timePeriod" dxfId="16" priority="13" timePeriod="today">
+      <formula>FLOOR(C26,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="timePeriod" dxfId="15" priority="14" timePeriod="today">
+      <formula>FLOOR(C26,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C26="T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>$C26="T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="timePeriod" dxfId="12" priority="9" timePeriod="today">
+      <formula>FLOOR(C27,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="timePeriod" dxfId="11" priority="10" timePeriod="today">
+      <formula>FLOOR(C27,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C27="T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$C27="T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="timePeriod" dxfId="8" priority="5" timePeriod="today">
+      <formula>FLOOR(C17,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="timePeriod" dxfId="7" priority="6" timePeriod="today">
+      <formula>FLOOR(C17,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C17="T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>$C17="T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="timePeriod" dxfId="4" priority="1" timePeriod="today">
+      <formula>FLOOR(C18,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="today">
+      <formula>FLOOR(C18,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C18="T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$C18="T"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Not yet started, In progress, Resolved"</formula1>
